--- a/data_h.xlsx
+++ b/data_h.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5012a76d39cc81c0/WIZPAD/课程/毕业论文/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5012a76d39cc81c0/WIZPAD/课程/毕业论文/data_nmjy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_2D4D4B1F46413C3E68192415495DCE3A8746C759" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B31C44D3-02E7-4DA6-876C-F04CCC2A4D5F}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_2D4D4B1F46413C3E68192415495DCE3A8746C759" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAFDDEAD-C0A4-42A8-8AC5-B85404FC7AC2}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2490" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="2415" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1:$L$168</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$1:$L$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,9 +135,6 @@
     <t>天沃科技</t>
   </si>
   <si>
-    <t>002564.SZ</t>
-  </si>
-  <si>
     <t>002564</t>
   </si>
   <si>
@@ -995,6 +991,10 @@
   </si>
   <si>
     <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>002564.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1739,16 +1739,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1784,7 +1784,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10948987" y="3190875"/>
+              <a:off x="14301787" y="866775"/>
               <a:ext cx="4572000" cy="2762250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,13 +2156,13 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
       </c>
       <c r="E2">
         <v>5424463.9299999997</v>
@@ -2174,7 +2174,7 @@
         <v>42138</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -2183,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="0">G2-F2</f>
@@ -2203,13 +2203,13 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>212</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
       </c>
       <c r="E3">
         <v>1325090.32</v>
@@ -2221,16 +2221,16 @@
         <v>41995</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -2250,13 +2250,13 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
         <v>256</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
       </c>
       <c r="E4">
         <v>1238434.21</v>
@@ -2268,16 +2268,16 @@
         <v>41408</v>
       </c>
       <c r="H4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" t="s">
         <v>259</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>260</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>261</v>
-      </c>
-      <c r="K4" t="s">
-        <v>262</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -2297,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
       <c r="E5">
         <v>197188114.69999999</v>
@@ -2315,16 +2315,16 @@
         <v>41500</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -2344,13 +2344,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
       </c>
       <c r="E6">
         <v>43733230.049999997</v>
@@ -2362,16 +2362,16 @@
         <v>42345</v>
       </c>
       <c r="H6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
         <v>140</v>
       </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>141</v>
-      </c>
-      <c r="K6" t="s">
-        <v>142</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -2391,13 +2391,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
       </c>
       <c r="E7">
         <v>1413835.03</v>
@@ -2409,16 +2409,16 @@
         <v>41453</v>
       </c>
       <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" t="s">
         <v>152</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>153</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>154</v>
-      </c>
-      <c r="K7" t="s">
-        <v>155</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -2438,13 +2438,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
         <v>249</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>250</v>
-      </c>
-      <c r="D8" t="s">
-        <v>251</v>
       </c>
       <c r="E8">
         <v>1662256.82</v>
@@ -2456,16 +2456,16 @@
         <v>42133</v>
       </c>
       <c r="H8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" t="s">
         <v>252</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>253</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>254</v>
-      </c>
-      <c r="K8" t="s">
-        <v>255</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -2485,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
       </c>
       <c r="E9">
         <v>1749599.09</v>
@@ -2503,16 +2503,16 @@
         <v>42850</v>
       </c>
       <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -2532,13 +2532,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" t="s">
-        <v>188</v>
       </c>
       <c r="E10">
         <v>2171358.5499999998</v>
@@ -2550,16 +2550,16 @@
         <v>41783</v>
       </c>
       <c r="H10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" t="s">
         <v>189</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>190</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>191</v>
-      </c>
-      <c r="K10" t="s">
-        <v>192</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -2579,13 +2579,13 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
         <v>202</v>
-      </c>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>203</v>
       </c>
       <c r="E11">
         <v>4550512.8099999996</v>
@@ -2597,16 +2597,16 @@
         <v>41680</v>
       </c>
       <c r="H11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -2626,13 +2626,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
         <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
       </c>
       <c r="E12">
         <v>4445560.7</v>
@@ -2644,16 +2644,16 @@
         <v>41730</v>
       </c>
       <c r="H12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" t="s">
         <v>177</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>292</v>
-      </c>
-      <c r="K12" t="s">
-        <v>178</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -2673,13 +2673,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>166</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
       </c>
       <c r="E13">
         <v>2518713.0499999998</v>
@@ -2691,16 +2691,16 @@
         <v>42065</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s">
         <v>169</v>
-      </c>
-      <c r="K13" t="s">
-        <v>170</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
@@ -2720,13 +2720,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
       </c>
       <c r="E14">
         <v>9446329.1600000001</v>
@@ -2738,16 +2738,16 @@
         <v>42104</v>
       </c>
       <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
         <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>74</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -2767,13 +2767,13 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" t="s">
         <v>267</v>
-      </c>
-      <c r="C15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" t="s">
-        <v>268</v>
       </c>
       <c r="E15">
         <v>2508478.36</v>
@@ -2785,16 +2785,16 @@
         <v>41774</v>
       </c>
       <c r="H15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
       <c r="J15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K15" t="s">
         <v>270</v>
-      </c>
-      <c r="K15" t="s">
-        <v>271</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
@@ -2814,13 +2814,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
         <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
       </c>
       <c r="E16">
         <v>30904502.870000001</v>
@@ -2832,16 +2832,16 @@
         <v>42536</v>
       </c>
       <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" t="s">
-        <v>96</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -2867,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="E17">
         <v>1421952</v>
@@ -2879,16 +2879,16 @@
         <v>42674</v>
       </c>
       <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
@@ -2908,13 +2908,13 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" t="s">
         <v>198</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" t="s">
-        <v>199</v>
       </c>
       <c r="E18">
         <v>15879426.859999999</v>
@@ -2926,16 +2926,16 @@
         <v>41660</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
@@ -2955,13 +2955,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
       </c>
       <c r="E19">
         <v>5442513.4800000004</v>
@@ -2973,16 +2973,16 @@
         <v>42091</v>
       </c>
       <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>68</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>69</v>
-      </c>
-      <c r="K19" t="s">
-        <v>70</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
@@ -3002,13 +3002,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
       </c>
       <c r="E20">
         <v>4487398.72</v>
@@ -3020,16 +3020,16 @@
         <v>42305</v>
       </c>
       <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
         <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>108</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -3049,13 +3049,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
       </c>
       <c r="E21">
         <v>1343629.26</v>
@@ -3067,16 +3067,16 @@
         <v>42558</v>
       </c>
       <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
         <v>77</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>79</v>
-      </c>
-      <c r="K21" t="s">
-        <v>80</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -3096,13 +3096,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>161</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
       </c>
       <c r="E22">
         <v>8777001.1400000006</v>
@@ -3114,16 +3114,16 @@
         <v>41296</v>
       </c>
       <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" t="s">
         <v>163</v>
-      </c>
-      <c r="I22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" t="s">
-        <v>164</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
@@ -3143,13 +3143,13 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
         <v>206</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>207</v>
-      </c>
-      <c r="D23" t="s">
-        <v>208</v>
       </c>
       <c r="E23">
         <v>3733492.39</v>
@@ -3161,16 +3161,16 @@
         <v>42033</v>
       </c>
       <c r="H23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" t="s">
         <v>209</v>
-      </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" t="s">
-        <v>210</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
@@ -3232,7 +3232,7 @@
         <v>4.3820266346738812</v>
       </c>
       <c r="Q24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3240,13 +3240,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
       </c>
       <c r="E25">
         <v>2670161</v>
@@ -3258,16 +3258,16 @@
         <v>43144</v>
       </c>
       <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>50</v>
-      </c>
-      <c r="K25" t="s">
-        <v>51</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
@@ -3287,13 +3287,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
         <v>122</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
       </c>
       <c r="E26">
         <v>9190977.2100000009</v>
@@ -3305,16 +3305,16 @@
         <v>42788</v>
       </c>
       <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" t="s">
-        <v>125</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
@@ -3329,7 +3329,7 @@
         <v>4.3567088266895917</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R26" s="7"/>
     </row>
@@ -3338,13 +3338,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" t="s">
         <v>272</v>
-      </c>
-      <c r="C27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" t="s">
-        <v>273</v>
       </c>
       <c r="E27">
         <v>4155227.22</v>
@@ -3356,16 +3356,16 @@
         <v>41799</v>
       </c>
       <c r="H27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" t="s">
         <v>274</v>
-      </c>
-      <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" t="s">
-        <v>275</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
@@ -3380,7 +3380,7 @@
         <v>4.3438054218536841</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R27" s="4">
         <v>3.8095669893801386E-2</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
         <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
       </c>
       <c r="E28">
         <v>1237565.22</v>
@@ -3409,16 +3409,16 @@
         <v>42444</v>
       </c>
       <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
         <v>145</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>146</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>147</v>
-      </c>
-      <c r="K28" t="s">
-        <v>148</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
@@ -3433,7 +3433,7 @@
         <v>4.3174881135363101</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R28" s="4">
         <v>1.4512800646574854E-3</v>
@@ -3444,13 +3444,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
         <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" t="s">
-        <v>172</v>
       </c>
       <c r="E29">
         <v>10844675.1</v>
@@ -3462,16 +3462,16 @@
         <v>41921</v>
       </c>
       <c r="H29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" t="s">
         <v>173</v>
-      </c>
-      <c r="I29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" t="s">
-        <v>174</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
@@ -3486,7 +3486,7 @@
         <v>4.2341065045972597</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R29" s="4">
         <v>-1.77515799340991E-2</v>
@@ -3497,13 +3497,13 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
         <v>239</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>240</v>
-      </c>
-      <c r="D30" t="s">
-        <v>241</v>
       </c>
       <c r="E30">
         <v>2182764.16</v>
@@ -3515,23 +3515,23 @@
         <v>41989</v>
       </c>
       <c r="H30" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
         <v>242</v>
       </c>
-      <c r="I30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>243</v>
-      </c>
-      <c r="K30" t="s">
-        <v>244</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f>LN(E30)</f>
         <v>14.596102594881424</v>
       </c>
       <c r="O30">
@@ -3539,7 +3539,7 @@
         <v>4.1431347263915326</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R30" s="4">
         <v>1.4651645707580541</v>
@@ -3550,13 +3550,13 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
       </c>
       <c r="E31">
         <v>2865646.42</v>
@@ -3568,16 +3568,16 @@
         <v>42205</v>
       </c>
       <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" t="s">
         <v>118</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>119</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>120</v>
-      </c>
-      <c r="K31" t="s">
-        <v>121</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -3592,7 +3592,7 @@
         <v>3.9512437185814275</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R31" s="5">
         <v>54</v>
@@ -3603,13 +3603,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
       </c>
       <c r="E32">
         <v>58751759.57</v>
@@ -3621,16 +3621,16 @@
         <v>41697</v>
       </c>
       <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
         <v>83</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>84</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>85</v>
-      </c>
-      <c r="K32" t="s">
-        <v>86</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
@@ -3641,7 +3641,7 @@
         <v>17.888831660667705</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f>LN(L32)</f>
         <v>3.8712010109078911</v>
       </c>
     </row>
@@ -3650,13 +3650,13 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
         <v>222</v>
-      </c>
-      <c r="C33" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" t="s">
-        <v>223</v>
       </c>
       <c r="E33">
         <v>2042160.11</v>
@@ -3668,16 +3668,16 @@
         <v>41898</v>
       </c>
       <c r="H33" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" t="s">
         <v>224</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>225</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>226</v>
-      </c>
-      <c r="K33" t="s">
-        <v>227</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
@@ -3692,7 +3692,7 @@
         <v>3.8712010109078911</v>
       </c>
       <c r="Q33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
@@ -3700,13 +3700,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
       </c>
       <c r="E34">
         <v>44513175.009999998</v>
@@ -3718,7 +3718,7 @@
         <v>42025</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -3727,7 +3727,7 @@
         <v>30</v>
       </c>
       <c r="K34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L55" si="3">G34-F34</f>
@@ -3743,19 +3743,19 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="S34" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="T34" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="U34" s="6" t="s">
+      <c r="V34" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
@@ -3763,13 +3763,13 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
         <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
       </c>
       <c r="E35">
         <v>2700007.13</v>
@@ -3781,7 +3781,7 @@
         <v>42025</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -3790,7 +3790,7 @@
         <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L35">
         <f t="shared" si="3"/>
@@ -3805,7 +3805,7 @@
         <v>3.8501476017100584</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R35" s="4">
         <v>1</v>
@@ -3828,13 +3828,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>194</v>
-      </c>
-      <c r="D36" t="s">
-        <v>195</v>
       </c>
       <c r="E36">
         <v>12640120.029999999</v>
@@ -3846,16 +3846,16 @@
         <v>41802</v>
       </c>
       <c r="H36" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" t="s">
         <v>196</v>
-      </c>
-      <c r="I36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" t="s">
-        <v>197</v>
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
@@ -3870,7 +3870,7 @@
         <v>3.784189633918261</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R36" s="4">
         <v>52</v>
@@ -3889,13 +3889,13 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" t="s">
         <v>179</v>
-      </c>
-      <c r="C37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" t="s">
-        <v>180</v>
       </c>
       <c r="E37">
         <v>61940000</v>
@@ -3907,10 +3907,10 @@
         <v>42035</v>
       </c>
       <c r="H37" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" t="s">
         <v>181</v>
-      </c>
-      <c r="K37" t="s">
-        <v>182</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
@@ -3925,7 +3925,7 @@
         <v>3.6888794541139363</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R37" s="5">
         <v>53</v>
@@ -3942,13 +3942,13 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
         <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>127</v>
       </c>
       <c r="E38">
         <v>1042046.19</v>
@@ -3960,16 +3960,16 @@
         <v>41865</v>
       </c>
       <c r="H38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" t="s">
         <v>128</v>
       </c>
-      <c r="I38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>129</v>
-      </c>
-      <c r="K38" t="s">
-        <v>130</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
@@ -3989,13 +3989,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
         <v>52</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>54</v>
       </c>
       <c r="E39">
         <v>1699071.4</v>
@@ -4007,16 +4007,16 @@
         <v>42130</v>
       </c>
       <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
         <v>55</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>56</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>57</v>
-      </c>
-      <c r="K39" t="s">
-        <v>58</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
@@ -4032,28 +4032,28 @@
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="T39" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="S39" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="T39" s="6" t="s">
+      <c r="U39" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="U39" s="6" t="s">
+      <c r="V39" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="V39" s="6" t="s">
+      <c r="W39" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="W39" s="6" t="s">
+      <c r="X39" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="Y39" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
@@ -4103,7 +4103,7 @@
         <v>3.5553480614894135</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R40" s="4">
         <v>15.665062359734785</v>
@@ -4135,13 +4135,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" t="s">
         <v>228</v>
-      </c>
-      <c r="C41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" t="s">
-        <v>229</v>
       </c>
       <c r="E41">
         <v>2412194.23</v>
@@ -4153,16 +4153,16 @@
         <v>41529</v>
       </c>
       <c r="H41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" t="s">
         <v>230</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>231</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>232</v>
-      </c>
-      <c r="K41" t="s">
-        <v>233</v>
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
@@ -4177,7 +4177,7 @@
         <v>3.5553480614894135</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R41" s="5">
         <v>-6.7055600962376172E-2</v>
@@ -4209,13 +4209,13 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
       </c>
       <c r="E42">
         <v>6126657.4500000002</v>
@@ -4227,16 +4227,16 @@
         <v>41612</v>
       </c>
       <c r="H42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s">
         <v>103</v>
-      </c>
-      <c r="I42" t="s">
-        <v>78</v>
-      </c>
-      <c r="J42" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42" t="s">
-        <v>104</v>
       </c>
       <c r="L42">
         <f t="shared" si="3"/>
@@ -4256,13 +4256,13 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
         <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
       </c>
       <c r="E43">
         <v>1737692.27</v>
@@ -4274,16 +4274,16 @@
         <v>42270</v>
       </c>
       <c r="H43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" t="s">
         <v>133</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>134</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>135</v>
-      </c>
-      <c r="K43" t="s">
-        <v>136</v>
       </c>
       <c r="L43">
         <f t="shared" si="3"/>
@@ -4303,13 +4303,13 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" t="s">
         <v>263</v>
-      </c>
-      <c r="C44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D44" t="s">
-        <v>264</v>
       </c>
       <c r="E44">
         <v>1452092.56</v>
@@ -4321,16 +4321,16 @@
         <v>41713</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
         <v>25</v>
       </c>
       <c r="K44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L44">
         <f t="shared" si="3"/>
@@ -4350,13 +4350,13 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
         <v>156</v>
-      </c>
-      <c r="C45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" t="s">
-        <v>157</v>
       </c>
       <c r="E45">
         <v>1845956.65</v>
@@ -4368,16 +4368,16 @@
         <v>42104</v>
       </c>
       <c r="H45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L45">
         <f t="shared" si="3"/>
@@ -4397,13 +4397,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" t="s">
         <v>245</v>
-      </c>
-      <c r="C46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" t="s">
-        <v>246</v>
       </c>
       <c r="E46">
         <v>1595626.26</v>
@@ -4415,16 +4415,16 @@
         <v>41883</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L46">
         <f t="shared" si="3"/>
@@ -4444,13 +4444,13 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>286</v>
+      </c>
+      <c r="D47" t="s">
         <v>285</v>
-      </c>
-      <c r="C47" t="s">
-        <v>287</v>
-      </c>
-      <c r="D47" t="s">
-        <v>286</v>
       </c>
       <c r="E47">
         <v>4466037.26</v>
@@ -4462,13 +4462,13 @@
         <v>41470</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I47" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" t="s">
         <v>288</v>
-      </c>
-      <c r="J47" t="s">
-        <v>289</v>
       </c>
       <c r="K47">
         <v>19960830</v>
@@ -4585,13 +4585,13 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
       </c>
       <c r="E50">
         <v>10071861.210000001</v>
@@ -4603,16 +4603,16 @@
         <v>42695</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
       </c>
       <c r="J50" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s">
         <v>90</v>
-      </c>
-      <c r="K50" t="s">
-        <v>91</v>
       </c>
       <c r="L50">
         <f t="shared" si="3"/>
@@ -4632,13 +4632,13 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" t="s">
         <v>276</v>
-      </c>
-      <c r="C51" t="s">
-        <v>276</v>
-      </c>
-      <c r="D51" t="s">
-        <v>277</v>
       </c>
       <c r="E51">
         <v>1090802.81</v>
@@ -4650,16 +4650,16 @@
         <v>41713</v>
       </c>
       <c r="H51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51" t="s">
+        <v>278</v>
+      </c>
+      <c r="K51" t="s">
         <v>279</v>
-      </c>
-      <c r="K51" t="s">
-        <v>280</v>
       </c>
       <c r="L51">
         <f t="shared" si="3"/>
@@ -4679,13 +4679,13 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" t="s">
         <v>216</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>217</v>
-      </c>
-      <c r="D52" t="s">
-        <v>218</v>
       </c>
       <c r="E52">
         <v>65376232.640000001</v>
@@ -4697,16 +4697,16 @@
         <v>41380</v>
       </c>
       <c r="H52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
       </c>
       <c r="J52" t="s">
+        <v>219</v>
+      </c>
+      <c r="K52" t="s">
         <v>220</v>
-      </c>
-      <c r="K52" t="s">
-        <v>221</v>
       </c>
       <c r="L52">
         <f t="shared" si="3"/>
@@ -4726,13 +4726,13 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" t="s">
         <v>234</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>235</v>
-      </c>
-      <c r="D53" t="s">
-        <v>236</v>
       </c>
       <c r="E53">
         <v>1462728.14</v>
@@ -4744,16 +4744,16 @@
         <v>41408</v>
       </c>
       <c r="H53" t="s">
+        <v>236</v>
+      </c>
+      <c r="I53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" t="s">
         <v>237</v>
-      </c>
-      <c r="I53" t="s">
-        <v>68</v>
-      </c>
-      <c r="J53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K53" t="s">
-        <v>238</v>
       </c>
       <c r="L53">
         <f t="shared" si="3"/>
@@ -4773,13 +4773,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" t="s">
         <v>281</v>
-      </c>
-      <c r="C54" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" t="s">
-        <v>282</v>
       </c>
       <c r="E54">
         <v>2422814.35</v>
@@ -4791,16 +4791,16 @@
         <v>41150</v>
       </c>
       <c r="H54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I54" t="s">
         <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L54">
         <f t="shared" si="3"/>
@@ -4820,13 +4820,13 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>111</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
       </c>
       <c r="E55">
         <v>8909664.8399999999</v>
@@ -4838,16 +4838,16 @@
         <v>42364</v>
       </c>
       <c r="H55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s">
         <v>113</v>
       </c>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>114</v>
-      </c>
-      <c r="K55" t="s">
-        <v>115</v>
       </c>
       <c r="L55">
         <f t="shared" si="3"/>
